--- a/doc/ue_world_TickingGroup.xlsx
+++ b/doc/ue_world_TickingGroup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A559C816-6157-4567-9FBB-94C99AF6151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBE652E-C4D3-453C-BD42-932538C29C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,15 +214,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对于SkeletalMesh上挂在的特效（例如角色特效等，由于SkeletalMeshComponennt的限制，只能在TG_PostPhysics，而这部分一般可能比较费，所以更需要TG_PostUpdateWork赛一些逻辑才行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>为了防止TG_LastDemotable阶段等待粒子造成CPU-WAIT，所以需要考虑把一部分逻辑放到TG_PostUpdateWork</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如果动画更新耗时大，可以把一些耗时逻辑放在TG_PostPhysics前，避免在TG_PostPhysics由于等待动作运算结束而导致CPU-WAIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于SkeletalMesh上挂在的特效（例如角色特效等，由于SkeletalMeshComponennt的限制，只能在TG_PostUpdateWork(SkeletalMeshCom自己在TG_PostPhysics)，而这部分一般可能比较费，所以更需要TG_PostUpdateWork赛一些逻辑才行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,6 +342,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,32 +372,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,20 +799,20 @@
   <dimension ref="A2:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="24" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24" style="3" customWidth="1"/>
     <col min="4" max="4" width="3.75" customWidth="1"/>
     <col min="5" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="4.5" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="3.5" customWidth="1"/>
-    <col min="9" max="9" width="29.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="29.875" style="3" customWidth="1"/>
     <col min="10" max="10" width="3.25" customWidth="1"/>
     <col min="11" max="11" width="31.625" customWidth="1"/>
     <col min="12" max="12" width="3.5" customWidth="1"/>
@@ -830,7 +830,7 @@
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -839,7 +839,7 @@
       <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -848,16 +848,16 @@
       <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -866,103 +866,103 @@
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="9" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="11" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="10" t="s">
+      <c r="M11" s="7"/>
+      <c r="N11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="12" t="s">
+      <c r="O11" s="8"/>
+      <c r="P11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="1:17" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="6">
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
         <v>1</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="3">
         <v>1</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="3">
         <v>1</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -970,7 +970,7 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D13">
@@ -982,19 +982,19 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N13">
@@ -1008,25 +1008,25 @@
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J15">
@@ -1054,7 +1054,7 @@
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
